--- a/selenium_webdriver/testdata/fd_data.xlsx
+++ b/selenium_webdriver/testdata/fd_data.xlsx
@@ -1,40 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anura\Desktop\java_selenium\selenium_webdriver\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDFB8D3-FE34-4582-A1DC-BBD88F2C7865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-30828" yWindow="-3108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>11000.00</t>
   </si>
@@ -70,16 +56,133 @@
   </si>
   <si>
     <t>35017.84</t>
+  </si>
+  <si>
+    <t>Principal (₹)</t>
+  </si>
+  <si>
+    <t>Rate of Interest (%)</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Maturity Value (₹)</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>year(s)</t>
+  </si>
+  <si>
+    <t>Simple Interest</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>29875.50</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>month(s)</t>
+  </si>
+  <si>
+    <t>15056.27</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>day(s)</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>100197.23</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>Actual Value (₹)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,18 +199,8 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -128,24 +221,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -470,331 +566,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str" s="0">
-        <v>Principal (₹)</v>
-      </c>
-      <c r="B1" t="str" s="0">
-        <v>Rate of Interest (%)</v>
-      </c>
-      <c r="C1" t="str" s="0">
-        <v>Period</v>
-      </c>
-      <c r="E1" t="str" s="0">
-        <v>Frequency</v>
-      </c>
-      <c r="F1" t="str" s="0">
-        <v>Maturity Value (₹)</v>
-      </c>
-      <c r="G1" t="str" s="0">
-        <v>Expected</v>
-      </c>
-      <c r="H1" t="str" s="0">
-        <v>Result</v>
-      </c>
-      <c r="I1" t="str" s="0">
-        <v>Web Calculated</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str" s="0">
-        <v>10000</v>
-      </c>
-      <c r="B2" t="str" s="0">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="str" s="0">
-        <v>2</v>
-      </c>
-      <c r="D2" t="str" s="0">
-        <v>year(s)</v>
-      </c>
-      <c r="E2" t="str" s="0">
-        <v>Simple Interest</v>
-      </c>
-      <c r="F2" t="str" s="0">
-        <v>11000.00</v>
-      </c>
-      <c r="G2" t="str" s="0">
-        <v>Pass</v>
-      </c>
-      <c r="H2" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str" s="0">
-        <v>25000</v>
-      </c>
-      <c r="B3" t="str" s="0">
-        <v>6.5</v>
-      </c>
-      <c r="C3" t="str" s="0">
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="str" s="0">
-        <v>year(s)</v>
-      </c>
-      <c r="E3" t="str" s="0">
-        <v>Simple Interest</v>
-      </c>
-      <c r="F3" t="str" s="0">
-        <v>29875.50</v>
-      </c>
-      <c r="G3" t="str" s="0">
-        <v>Fail</v>
-      </c>
-      <c r="H3" t="s" s="2">
+      <c r="H10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str" s="0">
-        <v>50000</v>
-      </c>
-      <c r="B4" t="str" s="0">
-        <v>7</v>
-      </c>
-      <c r="C4" t="str" s="0">
-        <v>5</v>
-      </c>
-      <c r="D4" t="str" s="0">
-        <v>year(s)</v>
-      </c>
-      <c r="E4" t="str" s="0">
-        <v>Simple Interest</v>
-      </c>
-      <c r="F4" t="str" s="0">
-        <v>67500.00</v>
-      </c>
-      <c r="G4" t="str" s="0">
-        <v>Pass</v>
-      </c>
-      <c r="H4" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str" s="0">
-        <v>15000</v>
-      </c>
-      <c r="B5" t="str" s="0">
-        <v>4.5</v>
-      </c>
-      <c r="C5" t="str" s="0">
-        <v>1</v>
-      </c>
-      <c r="D5" t="str" s="0">
-        <v>month(s)</v>
-      </c>
-      <c r="E5" t="str" s="0">
-        <v>Simple Interest</v>
-      </c>
-      <c r="F5" t="str" s="0">
-        <v>15056.27</v>
-      </c>
-      <c r="G5" t="str" s="0">
-        <v>Fail</v>
-      </c>
-      <c r="H5" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str" s="0">
-        <v>80000</v>
-      </c>
-      <c r="B6" t="str" s="0">
-        <v>8</v>
-      </c>
-      <c r="C6" t="str" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="str" s="0">
-        <v>month(s)</v>
-      </c>
-      <c r="E6" t="str" s="0">
-        <v>Simple Interest</v>
-      </c>
-      <c r="F6" t="str" s="0">
-        <v>85333.33</v>
-      </c>
-      <c r="G6" t="str" s="0">
-        <v>Pass</v>
-      </c>
-      <c r="H6" t="s" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str" s="0">
-        <v>40000</v>
-      </c>
-      <c r="B7" t="str" s="0">
-        <v>6</v>
-      </c>
-      <c r="C7" t="str" s="0">
-        <v>4</v>
-      </c>
-      <c r="D7" t="str" s="0">
-        <v>month(s)</v>
-      </c>
-      <c r="E7" t="str" s="0">
-        <v>Simple Interest</v>
-      </c>
-      <c r="F7" t="str" s="0">
-        <v>40800.00</v>
-      </c>
-      <c r="G7" t="str" s="0">
-        <v>Pass</v>
-      </c>
-      <c r="H7" t="s" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str" s="0">
-        <v>60000</v>
-      </c>
-      <c r="B8" t="str" s="0">
-        <v>7.5</v>
-      </c>
-      <c r="C8" t="str" s="0">
-        <v>6</v>
-      </c>
-      <c r="D8" t="str" s="0">
-        <v>day(s)</v>
-      </c>
-      <c r="E8" t="str" s="0">
-        <v>Simple Interest</v>
-      </c>
-      <c r="F8" t="str" s="0">
-        <v>60073.97</v>
-      </c>
-      <c r="G8" t="str" s="0">
-        <v>Pass</v>
-      </c>
-      <c r="H8" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str" s="0">
-        <v>20000</v>
-      </c>
-      <c r="B9" t="str" s="0">
-        <v>5.5</v>
-      </c>
-      <c r="C9" t="str" s="0">
-        <v>2</v>
-      </c>
-      <c r="D9" t="str" s="0">
-        <v>day(s)</v>
-      </c>
-      <c r="E9" t="str" s="0">
-        <v>Simple Interest</v>
-      </c>
-      <c r="F9" t="str" s="0">
-        <v>20006.03</v>
-      </c>
-      <c r="G9" t="str" s="0">
-        <v>Pass</v>
-      </c>
-      <c r="H9" t="s" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str" s="0">
-        <v>100000</v>
-      </c>
-      <c r="B10" t="str" s="0">
-        <v>9</v>
-      </c>
-      <c r="C10" t="str" s="0">
-        <v>8</v>
-      </c>
-      <c r="D10" t="str" s="0">
-        <v>day(s)</v>
-      </c>
-      <c r="E10" t="str" s="0">
-        <v>Simple Interest</v>
-      </c>
-      <c r="F10" t="str" s="0">
-        <v>100197.23</v>
-      </c>
-      <c r="G10" t="str" s="0">
-        <v>Fail</v>
-      </c>
-      <c r="H10" t="s" s="9">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str" s="0">
-        <v>35000</v>
-      </c>
-      <c r="B11" t="str" s="0">
-        <v>6.2</v>
-      </c>
-      <c r="C11" t="str" s="0">
-        <v>3</v>
-      </c>
-      <c r="D11" t="str" s="0">
-        <v>day(s)</v>
-      </c>
-      <c r="E11" t="str" s="0">
-        <v>Simple Interest</v>
-      </c>
-      <c r="F11" t="str" s="0">
-        <v>35017.84</v>
-      </c>
-      <c r="G11" t="str" s="0">
-        <v>Pass</v>
-      </c>
-      <c r="H11" t="s" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s" s="0">
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
       </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I11"/>
+    <ignoredError sqref="A2:I11 A1:C1 E1 G1:H1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/selenium_webdriver/testdata/fd_data.xlsx
+++ b/selenium_webdriver/testdata/fd_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anura\Desktop\java_selenium\selenium_webdriver\testdata\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
   <si>
     <t>11000.00</t>
   </si>
@@ -182,6 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -191,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +209,16 @@
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -221,13 +232,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,331 +606,331 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.25"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.5"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.25"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.5"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="6.125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s" s="14">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="16">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s" s="17">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G6" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G7" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G8" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s" s="20">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s" s="21">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s" s="22">
         <v>3</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="G11" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s" s="23">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s" s="0">
         <v>11</v>
       </c>
     </row>
